--- a/Acceptance test.xlsx
+++ b/Acceptance test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomerozfresko/Library/Mobile Documents/com~apple~CloudDocs/Full Stack/Open Class Room/Projects/KANAP/P5-Web-Dev-Kanap-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD87B8F-E42F-F84C-8AD3-F46E248AD516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE54B0-DE2E-3949-946D-6966D3279E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="49800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Feature</t>
   </si>
@@ -43,10 +43,85 @@
     <t>Display all the products</t>
   </si>
   <si>
-    <t>OK / Error description</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Display the product and his information correctly</t>
+  </si>
+  <si>
+    <t>Alert recieved</t>
+  </si>
+  <si>
+    <t>Send product to cart without making color and or quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact fields validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can choose the product color </t>
+  </si>
+  <si>
+    <t>Alert if user didn't choose color/quantity before adding item to cart</t>
+  </si>
+  <si>
+    <t>The cart page showing (dynamically) all products selected by the user</t>
+  </si>
+  <si>
+    <t>Open the cart page on a browser.</t>
+  </si>
+  <si>
+    <t>Products displayed as by the selction made</t>
+  </si>
+  <si>
+    <t>Item removed, total price and quantity change accordingly</t>
+  </si>
+  <si>
+    <t>Quantity changed, total price and quantity change accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check different contact detailes scenarios </t>
+  </si>
+  <si>
+    <t>Receive alert message if user is missing or putting wrong information in one of the  contact fields</t>
+  </si>
+  <si>
+    <t>Auto redirecting to confirmation page</t>
+  </si>
+  <si>
+    <t>Confirm order</t>
+  </si>
+  <si>
+    <t>Redirecting to the confirmation page</t>
+  </si>
+  <si>
+    <t>Receive order confirmation number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product page showing the selected product with the corresponding detailes </t>
+  </si>
+  <si>
+    <t>Select and check several products</t>
+  </si>
+  <si>
+    <t>Check for avaliable colors on differnet products</t>
+  </si>
+  <si>
+    <t>Receiving the avalilbe colors for any model checked</t>
+  </si>
+  <si>
+    <t>Delete item on cart page</t>
+  </si>
+  <si>
+    <t>Change quantity on cart page</t>
+  </si>
+  <si>
+    <t>Delete item using the 'delete' button and update the modified quantity and total price</t>
+  </si>
+  <si>
+    <t>Change item quantity using the 'change quantity' buttons and update the modified quantity and total price</t>
+  </si>
+  <si>
+    <t>Order id received</t>
   </si>
 </sst>
 </file>
@@ -89,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,69 +338,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,56 +356,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,19 +601,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="58.5" customWidth="1"/>
-    <col min="4" max="4" width="57.83203125" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="46" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -635,172 +632,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Acceptance test.xlsx
+++ b/Acceptance test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomerozfresko/Library/Mobile Documents/com~apple~CloudDocs/Full Stack/Open Class Room/Projects/KANAP/P5-Web-Dev-Kanap-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE54B0-DE2E-3949-946D-6966D3279E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529AE19-9B81-CC4B-925A-4D3F407FE865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
